--- a/testcases/CRM系统接口测试用例.xlsx
+++ b/testcases/CRM系统接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17753\Desktop\api_work\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8D8EE3-F2A0-4AEE-A9A9-DB7C255D8D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8717D3E-2179-474D-870F-DDB5B59E4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局变量" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
   <si>
     <t>变量名称</t>
   </si>
@@ -413,12 +413,16 @@
     <t>http://82.156.74.26:8090/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,11 +435,20 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -467,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +491,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -920,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -965,6 +981,9 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -976,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1026,7 +1045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="89.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1053,7 +1072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="106.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>

--- a/testcases/CRM系统接口测试用例.xlsx
+++ b/testcases/CRM系统接口测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17753\Desktop\api_work\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8717D3E-2179-474D-870F-DDB5B59E4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE1C5F5-B3B4-4280-ABE5-59A62FA2951E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
   <si>
     <t>变量名称</t>
   </si>
@@ -411,10 +411,6 @@
   </si>
   <si>
     <t>http://82.156.74.26:8090/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,17 +969,12 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
